--- a/doc/controls.xlsx
+++ b/doc/controls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="COMMANDS" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="235">
   <si>
     <t>#</t>
   </si>
@@ -720,6 +720,21 @@
   </si>
   <si>
     <t>00010110</t>
+  </si>
+  <si>
+    <t>00101000</t>
+  </si>
+  <si>
+    <t>00101100</t>
+  </si>
+  <si>
+    <t>00001000</t>
+  </si>
+  <si>
+    <t>00000100</t>
+  </si>
+  <si>
+    <t>FLAG_RESET</t>
   </si>
 </sst>
 </file>
@@ -814,7 +829,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="725">
+  <cellStyleXfs count="733">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1540,8 +1555,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1603,6 +1626,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1615,14 +1647,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="725">
+  <cellStyles count="733">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1985,6 +2017,10 @@
     <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2347,6 +2383,10 @@
     <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2649,7 +2689,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2682,22 +2722,22 @@
         <v>75</v>
       </c>
       <c r="F1" s="20"/>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="11">
@@ -2714,24 +2754,24 @@
         <v>000001</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="11">
@@ -2754,13 +2794,13 @@
       <c r="G3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="37">
         <v>5</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="37">
         <v>6</v>
       </c>
       <c r="K3" s="21" t="s">
@@ -2808,13 +2848,13 @@
       <c r="G4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="15">
         <v>5</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="15">
         <v>6</v>
       </c>
       <c r="K4" s="17" t="s">
@@ -2833,7 +2873,7 @@
         <v>0011</v>
       </c>
       <c r="O4" s="11" t="str">
-        <f t="shared" ref="O4:O18" si="5">BIN2HEX(L4,4)</f>
+        <f t="shared" ref="O4:O15" si="5">BIN2HEX(L4,4)</f>
         <v>0005</v>
       </c>
       <c r="P4" s="11" t="str">
@@ -2863,13 +2903,13 @@
       <c r="G5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="15">
         <v>12</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="15">
         <v>0</v>
       </c>
       <c r="K5" s="17" t="s">
@@ -2918,13 +2958,13 @@
       <c r="G6" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="15">
         <v>6</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="15">
         <v>0</v>
       </c>
       <c r="K6" s="17" t="s">
@@ -2973,13 +3013,13 @@
       <c r="G7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="15">
         <v>19</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="15">
         <v>0</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -3028,13 +3068,13 @@
       <c r="G8" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="15">
         <v>32</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="15">
         <v>0</v>
       </c>
       <c r="K8" s="17" t="s">
@@ -3083,13 +3123,13 @@
       <c r="G9" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="15">
         <v>32</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="15">
         <v>0</v>
       </c>
       <c r="K9" s="17" t="s">
@@ -3136,39 +3176,39 @@
         <v>8</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="11">
-        <v>32</v>
-      </c>
-      <c r="J10" s="11">
-        <v>33</v>
+      <c r="I10" s="15">
+        <v>16</v>
+      </c>
+      <c r="J10" s="15">
+        <v>17</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L10" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>00100000</v>
+        <v>00010000</v>
       </c>
       <c r="M10" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>00100001</v>
+        <v>00010001</v>
       </c>
       <c r="N10" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>0024</v>
+        <f>BIN2HEX(K10,4)</f>
+        <v>0028</v>
       </c>
       <c r="O10" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>0020</v>
+        <v>0010</v>
       </c>
       <c r="P10" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>0021</v>
+        <v>0011</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3191,39 +3231,39 @@
         <v>9</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="11">
-        <v>40</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
+      <c r="I11" s="15">
+        <v>16</v>
+      </c>
+      <c r="J11" s="15">
+        <v>17</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>00101000</v>
+        <v>00010000</v>
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>00000000</v>
+        <v>00010001</v>
       </c>
       <c r="N11" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>0018</v>
+        <f t="shared" ref="N11:N18" si="8">BIN2HEX(K11,4)</f>
+        <v>002C</v>
       </c>
       <c r="O11" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>0028</v>
+        <v>0010</v>
       </c>
       <c r="P11" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3245,30 +3285,40 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="17"/>
+      <c r="G12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="15">
+        <v>32</v>
+      </c>
+      <c r="J12" s="15">
+        <v>33</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="L12" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00100000</v>
       </c>
       <c r="M12" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>00000000</v>
+        <v>00100001</v>
       </c>
       <c r="N12" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>0000</v>
+        <f t="shared" si="8"/>
+        <v>0024</v>
       </c>
       <c r="O12" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0020</v>
       </c>
       <c r="P12" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0021</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3290,11 +3340,21 @@
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="17"/>
+      <c r="G13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>233</v>
+      </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00000000</v>
@@ -3304,8 +3364,8 @@
         <v>00000000</v>
       </c>
       <c r="N13" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>0000</v>
+        <f t="shared" si="8"/>
+        <v>0004</v>
       </c>
       <c r="O13" s="11" t="str">
         <f t="shared" si="5"/>
@@ -3335,26 +3395,36 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="17"/>
+      <c r="G14" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="15">
+        <v>40</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>217</v>
+      </c>
       <c r="L14" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
+        <v>00101000</v>
       </c>
       <c r="M14" s="16" t="str">
         <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="N14" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>0000</v>
+        <f t="shared" si="8"/>
+        <v>0018</v>
       </c>
       <c r="O14" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0028</v>
       </c>
       <c r="P14" s="11" t="str">
         <f t="shared" si="6"/>
@@ -3366,11 +3436,21 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="17"/>
+      <c r="G15" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="L15" s="16" t="str">
         <f t="shared" si="2"/>
         <v>00000000</v>
@@ -3380,8 +3460,8 @@
         <v>00000000</v>
       </c>
       <c r="N15" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>0000</v>
+        <f t="shared" si="8"/>
+        <v>0008</v>
       </c>
       <c r="O15" s="11" t="str">
         <f t="shared" si="5"/>
@@ -3413,11 +3493,11 @@
         <v>00000000</v>
       </c>
       <c r="N16" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0000</v>
       </c>
       <c r="O16" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O4:O18" si="9">BIN2HEX(L16,4)</f>
         <v>0000</v>
       </c>
       <c r="P16" s="11" t="str">
@@ -3444,11 +3524,11 @@
         <v>00000000</v>
       </c>
       <c r="N17" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0000</v>
       </c>
       <c r="O17" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0000</v>
       </c>
       <c r="P17" s="11" t="str">
@@ -3475,11 +3555,11 @@
         <v>00000000</v>
       </c>
       <c r="N18" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0000</v>
       </c>
       <c r="O18" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0000</v>
       </c>
       <c r="P18" s="11" t="str">
@@ -3688,72 +3768,72 @@
       <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="10" t="s">
@@ -3868,10 +3948,10 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3879,7 +3959,6 @@
     <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3920,72 +3999,72 @@
       <c r="D1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="25" t="s">
@@ -4176,10 +4255,10 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4187,7 +4266,6 @@
     <mergeCell ref="A27:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4228,72 +4306,72 @@
       <c r="E1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
-      <c r="BQ1" s="32"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
     </row>
     <row r="2" spans="1:69">
       <c r="A2" s="10" t="s">
@@ -4374,11 +4452,11 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4398,8 +4476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4710,7 +4788,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5">
@@ -5750,72 +5830,72 @@
       <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
-      <c r="BQ1" s="32"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
     </row>
     <row r="2" spans="1:69">
       <c r="A2" s="4" t="s">
@@ -6131,13 +6211,13 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6186,72 +6266,72 @@
       <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="9" t="s">
@@ -6758,7 +6838,7 @@
       <c r="C44" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="30" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6773,13 +6853,13 @@
       <c r="C45" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="31" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3">
-        <f t="shared" ref="A46:A54" si="1">A45+1</f>
+        <f t="shared" ref="A46" si="1">A45+1</f>
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -6788,7 +6868,7 @@
       <c r="C46" s="8">
         <v>25</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="31" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6800,7 +6880,6 @@
     <mergeCell ref="E1:BP1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6841,72 +6920,72 @@
       <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="9" t="s">
@@ -7035,10 +7114,10 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7086,72 +7165,72 @@
       <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="9" t="s">
@@ -7280,10 +7359,10 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7303,8 +7382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP28"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7331,72 +7410,72 @@
       <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="10" t="s">
@@ -7483,12 +7562,24 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="13">
+        <v>32</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="13">
         <v>26</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7498,10 +7589,10 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7509,6 +7600,7 @@
     <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7545,72 +7637,72 @@
       <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
     </row>
     <row r="2" spans="1:68" ht="15">
       <c r="A2" s="10" t="s">
@@ -8197,72 +8289,72 @@
       <c r="D1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="10" t="s">

--- a/doc/controls.xlsx
+++ b/doc/controls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480"/>
   </bookViews>
   <sheets>
     <sheet name="COMMANDS" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="235">
   <si>
     <t>#</t>
   </si>
@@ -2688,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="N13" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>0004</v>
+        <v>0008</v>
       </c>
       <c r="O13" s="11" t="str">
         <f t="shared" si="5"/>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L15" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="N15" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>0008</v>
+        <v>0004</v>
       </c>
       <c r="O15" s="11" t="str">
         <f t="shared" si="5"/>
@@ -4476,8 +4476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D234"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4797,7 +4797,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5">
@@ -7382,7 +7384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/doc/controls.xlsx
+++ b/doc/controls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="COMMANDS" sheetId="3" r:id="rId1"/>
@@ -30,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="235">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Command</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="236">
   <si>
     <t>IP_WRITE</t>
   </si>
@@ -735,6 +729,15 @@
   </si>
   <si>
     <t>FLAG_RESET</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Внешний номер</t>
   </si>
 </sst>
 </file>
@@ -805,7 +808,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -828,8 +831,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="733">
+  <cellStyleXfs count="753">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1563,8 +1579,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1635,6 +1671,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1647,14 +1689,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="733">
+  <cellStyles count="753">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2021,6 +2058,16 @@
     <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2387,6 +2434,16 @@
     <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2688,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2713,38 +2770,38 @@
     <row r="1" spans="1:16" s="9" customFormat="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="20"/>
-      <c r="G1" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="G1" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="12">
         <v>0</v>
@@ -2755,20 +2812,20 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -2779,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
@@ -2792,19 +2849,19 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="37">
+        <v>76</v>
+      </c>
+      <c r="I3" s="33">
         <v>5</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="33">
         <v>6</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L3" s="16" t="str">
         <f>DEC2BIN(I3,8)</f>
@@ -2833,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
@@ -2846,10 +2903,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4" s="15">
         <v>5</v>
@@ -2858,7 +2915,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L4" s="16" t="str">
         <f t="shared" ref="L4:L18" si="2">DEC2BIN(I4,8)</f>
@@ -2869,7 +2926,7 @@
         <v>00000110</v>
       </c>
       <c r="N4" s="11" t="str">
-        <f t="shared" ref="N4:N18" si="4">BIN2HEX(K4,4)</f>
+        <f t="shared" ref="N4:N9" si="4">BIN2HEX(K4,4)</f>
         <v>0011</v>
       </c>
       <c r="O4" s="11" t="str">
@@ -2887,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
@@ -2901,10 +2958,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I5" s="15">
         <v>12</v>
@@ -2913,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L5" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2942,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -2956,10 +3013,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="15">
         <v>6</v>
@@ -2968,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L6" s="16" t="str">
         <f t="shared" si="2"/>
@@ -2997,7 +3054,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -3011,10 +3068,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7" s="15">
         <v>19</v>
@@ -3023,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3052,7 +3109,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -3066,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I8" s="15">
         <v>32</v>
@@ -3078,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L8" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3107,7 +3164,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -3121,10 +3178,10 @@
         <v>7</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="15">
         <v>32</v>
@@ -3133,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L9" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3162,7 +3219,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -3176,10 +3233,10 @@
         <v>8</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" s="15">
         <v>16</v>
@@ -3188,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L10" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3217,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
@@ -3231,10 +3288,10 @@
         <v>9</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" s="15">
         <v>16</v>
@@ -3243,7 +3300,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3272,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
@@ -3286,10 +3343,10 @@
         <v>10</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I12" s="15">
         <v>32</v>
@@ -3298,7 +3355,7 @@
         <v>33</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L12" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3327,7 +3384,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
@@ -3341,10 +3398,10 @@
         <v>11</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13" s="15">
         <v>0</v>
@@ -3353,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3382,7 +3439,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
@@ -3396,10 +3453,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14" s="15">
         <v>40</v>
@@ -3408,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L14" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3436,11 +3493,11 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G15" s="36" t="s">
-        <v>67</v>
+      <c r="G15" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I15" s="15">
         <v>0</v>
@@ -3449,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L15" s="16" t="str">
         <f t="shared" si="2"/>
@@ -3497,7 +3554,7 @@
         <v>0000</v>
       </c>
       <c r="O16" s="11" t="str">
-        <f t="shared" ref="O4:O18" si="9">BIN2HEX(L16,4)</f>
+        <f t="shared" ref="O16:O18" si="9">BIN2HEX(L16,4)</f>
         <v>0000</v>
       </c>
       <c r="P16" s="11" t="str">
@@ -3570,10 +3627,10 @@
     <row r="19" spans="1:16">
       <c r="A19" s="25"/>
       <c r="B19" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -3581,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="15">
         <v>0</v>
@@ -3592,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="15">
         <v>1</v>
@@ -3603,7 +3660,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C22" s="11">
         <v>2</v>
@@ -3614,7 +3671,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="11">
         <v>3</v>
@@ -3634,13 +3691,13 @@
     <row r="26" spans="1:16" ht="16">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="3"/>
@@ -3650,13 +3707,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C27" s="11">
         <v>2</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="3"/>
@@ -3666,13 +3723,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C28" s="11">
         <v>2</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="3"/>
@@ -3682,13 +3739,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C29" s="11">
         <v>2</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3696,13 +3753,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3710,13 +3767,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3757,87 +3814,87 @@
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="13"/>
@@ -3847,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -3862,13 +3919,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -3877,13 +3934,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -3891,13 +3948,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -3905,13 +3962,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -3919,13 +3976,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -3933,25 +3990,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="13">
         <v>25</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:68">
       <c r="B11" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3988,87 +4045,87 @@
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="13"/>
@@ -4079,13 +4136,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -4094,13 +4151,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -4109,13 +4166,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -4123,13 +4180,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -4137,13 +4194,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -4151,13 +4208,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -4165,13 +4222,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -4180,13 +4237,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -4195,13 +4252,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -4210,13 +4267,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -4225,13 +4282,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -4240,25 +4297,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="13">
         <v>25</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:68">
       <c r="B16" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4278,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ28"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4295,90 +4352,90 @@
   <sheetData>
     <row r="1" spans="1:69">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="37"/>
     </row>
     <row r="2" spans="1:69">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
@@ -4392,13 +4449,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:69">
@@ -4410,13 +4467,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:69">
@@ -4428,13 +4485,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:69">
@@ -4445,18 +4502,18 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="13">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4474,441 +4531,589 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>234</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="5">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A53" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5">
-        <f t="shared" si="0"/>
+      <c r="B5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5">
-        <f t="shared" si="0"/>
+      <c r="B8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B39" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="B40" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="B42" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="B43" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="B44" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="B45" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="B46" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="B50" s="5">
         <v>0</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4916,12 +5121,12 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" ref="C51:C65" si="1">C50+1</f>
+      <c r="B51" s="5">
+        <f t="shared" ref="B51:B65" si="1">B50+1</f>
         <v>1</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4929,25 +5134,25 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B52" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="C52" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="B53" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4955,12 +5160,12 @@
         <f>A53+1</f>
         <v>52</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="1">
+      <c r="B54" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4968,12 +5173,12 @@
         <f>A54+1</f>
         <v>53</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="1">
+      <c r="B55" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4981,12 +5186,12 @@
         <f t="shared" ref="A56:A65" si="2">A55+1</f>
         <v>54</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="1">
+      <c r="B56" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4994,12 +5199,12 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="1">
+      <c r="B57" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5007,12 +5212,12 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="1">
+      <c r="B58" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5020,12 +5225,12 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="1">
+      <c r="B59" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5033,12 +5238,12 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="B60" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5046,12 +5251,12 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="1">
+      <c r="B61" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5059,12 +5264,12 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="1">
+      <c r="B62" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5072,12 +5277,12 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1">
+      <c r="B63" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5085,712 +5290,882 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="1">
+      <c r="B64" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="5">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="1">
+      <c r="B65" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="C65" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="28"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="28"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="27"/>
-      <c r="B67" s="28"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="27"/>
-      <c r="B68" s="28"/>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="27"/>
-      <c r="B69" s="28"/>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="27"/>
-      <c r="B70" s="28"/>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="27"/>
-      <c r="B71" s="28"/>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="27"/>
-      <c r="B72" s="28"/>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="27"/>
-      <c r="B73" s="28"/>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="27"/>
-      <c r="B74" s="28"/>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="27"/>
-      <c r="B75" s="28"/>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="27"/>
-      <c r="B76" s="28"/>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="27"/>
-      <c r="B77" s="28"/>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="27"/>
-      <c r="B78" s="28"/>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="27"/>
-      <c r="B79" s="28"/>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="27"/>
-      <c r="B80" s="28"/>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="27"/>
-      <c r="B81" s="28"/>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="27"/>
-      <c r="B83" s="28"/>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="27"/>
-      <c r="B84" s="28"/>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="27"/>
-      <c r="B85" s="28"/>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="B85" s="27"/>
+      <c r="C85" s="28"/>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="27"/>
-      <c r="B86" s="28"/>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="B86" s="27"/>
+      <c r="C86" s="28"/>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="27"/>
-      <c r="B87" s="28"/>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="B87" s="27"/>
+      <c r="C87" s="28"/>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="27"/>
-      <c r="B88" s="28"/>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="B88" s="27"/>
+      <c r="C88" s="28"/>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="27"/>
-      <c r="B89" s="28"/>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="B89" s="27"/>
+      <c r="C89" s="28"/>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="27"/>
-      <c r="B90" s="28"/>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="B90" s="27"/>
+      <c r="C90" s="28"/>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="27"/>
-      <c r="B91" s="28"/>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="B91" s="27"/>
+      <c r="C91" s="28"/>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="27"/>
-      <c r="B92" s="28"/>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="B92" s="27"/>
+      <c r="C92" s="28"/>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="27"/>
-      <c r="B93" s="28"/>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="B93" s="27"/>
+      <c r="C93" s="28"/>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="27"/>
-      <c r="B94" s="28"/>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="B94" s="27"/>
+      <c r="C94" s="28"/>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="27"/>
-      <c r="B95" s="28"/>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="B95" s="27"/>
+      <c r="C95" s="28"/>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="27"/>
-      <c r="B96" s="28"/>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="B96" s="27"/>
+      <c r="C96" s="28"/>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="27"/>
-      <c r="B97" s="28"/>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="B97" s="27"/>
+      <c r="C97" s="28"/>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="27"/>
-      <c r="B98" s="28"/>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="B98" s="27"/>
+      <c r="C98" s="28"/>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="27"/>
-      <c r="B99" s="28"/>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="B99" s="27"/>
+      <c r="C99" s="28"/>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="27"/>
-      <c r="B100" s="28"/>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="B100" s="27"/>
+      <c r="C100" s="28"/>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="27"/>
-      <c r="B101" s="28"/>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="B101" s="27"/>
+      <c r="C101" s="28"/>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="27"/>
-      <c r="B102" s="28"/>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="B102" s="27"/>
+      <c r="C102" s="28"/>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="27"/>
-      <c r="B103" s="28"/>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="B103" s="27"/>
+      <c r="C103" s="28"/>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="27"/>
-      <c r="B104" s="28"/>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="B104" s="27"/>
+      <c r="C104" s="28"/>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="27"/>
-      <c r="B105" s="28"/>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="B105" s="27"/>
+      <c r="C105" s="28"/>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="27"/>
-      <c r="B106" s="28"/>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="B106" s="27"/>
+      <c r="C106" s="28"/>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="27"/>
-      <c r="B107" s="28"/>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="B107" s="27"/>
+      <c r="C107" s="28"/>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="27"/>
-      <c r="B108" s="28"/>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="B108" s="27"/>
+      <c r="C108" s="28"/>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="27"/>
-      <c r="B109" s="28"/>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="B109" s="27"/>
+      <c r="C109" s="28"/>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="27"/>
-      <c r="B110" s="28"/>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="B110" s="27"/>
+      <c r="C110" s="28"/>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="27"/>
-      <c r="B111" s="28"/>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="B111" s="27"/>
+      <c r="C111" s="28"/>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="27"/>
-      <c r="B112" s="28"/>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="B112" s="27"/>
+      <c r="C112" s="28"/>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="27"/>
-      <c r="B113" s="28"/>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="27"/>
-      <c r="B114" s="28"/>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="B114" s="27"/>
+      <c r="C114" s="28"/>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="27"/>
-      <c r="B115" s="28"/>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="B115" s="27"/>
+      <c r="C115" s="28"/>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="27"/>
-      <c r="B116" s="28"/>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="B116" s="27"/>
+      <c r="C116" s="28"/>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="27"/>
-      <c r="B117" s="28"/>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="B117" s="27"/>
+      <c r="C117" s="28"/>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="27"/>
-      <c r="B118" s="28"/>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="B118" s="27"/>
+      <c r="C118" s="28"/>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="27"/>
-      <c r="B119" s="28"/>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="B119" s="27"/>
+      <c r="C119" s="28"/>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="27"/>
-      <c r="B120" s="28"/>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="B120" s="27"/>
+      <c r="C120" s="28"/>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="27"/>
-      <c r="B121" s="28"/>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="B121" s="27"/>
+      <c r="C121" s="28"/>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="27"/>
-      <c r="B122" s="28"/>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="B122" s="27"/>
+      <c r="C122" s="28"/>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="27"/>
-      <c r="B123" s="28"/>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="B123" s="27"/>
+      <c r="C123" s="28"/>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="27"/>
-      <c r="B124" s="28"/>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="B124" s="27"/>
+      <c r="C124" s="28"/>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="27"/>
-      <c r="B125" s="28"/>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="B125" s="27"/>
+      <c r="C125" s="28"/>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="27"/>
-      <c r="B126" s="28"/>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="B126" s="27"/>
+      <c r="C126" s="28"/>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="27"/>
-      <c r="B127" s="28"/>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="B127" s="27"/>
+      <c r="C127" s="28"/>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="27"/>
-      <c r="B128" s="28"/>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="B128" s="27"/>
+      <c r="C128" s="28"/>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="27"/>
-      <c r="B129" s="28"/>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="B129" s="27"/>
+      <c r="C129" s="28"/>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="27"/>
-      <c r="B130" s="28"/>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="B130" s="27"/>
+      <c r="C130" s="28"/>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="27"/>
-      <c r="B131" s="28"/>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="B131" s="27"/>
+      <c r="C131" s="28"/>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="27"/>
-      <c r="B132" s="28"/>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="B132" s="27"/>
+      <c r="C132" s="28"/>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="27"/>
-      <c r="B133" s="28"/>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="B133" s="27"/>
+      <c r="C133" s="28"/>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="27"/>
-      <c r="B134" s="28"/>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="B134" s="27"/>
+      <c r="C134" s="28"/>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="27"/>
-      <c r="B135" s="28"/>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="B135" s="27"/>
+      <c r="C135" s="28"/>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="27"/>
-      <c r="B136" s="28"/>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="B136" s="27"/>
+      <c r="C136" s="28"/>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="27"/>
-      <c r="B137" s="28"/>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="B137" s="27"/>
+      <c r="C137" s="28"/>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="27"/>
-      <c r="B138" s="28"/>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="B138" s="27"/>
+      <c r="C138" s="28"/>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="27"/>
-      <c r="B139" s="28"/>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="B139" s="27"/>
+      <c r="C139" s="28"/>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="27"/>
-      <c r="B140" s="28"/>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="B140" s="27"/>
+      <c r="C140" s="28"/>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="27"/>
-      <c r="B141" s="28"/>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="B141" s="27"/>
+      <c r="C141" s="28"/>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="27"/>
-      <c r="B142" s="28"/>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="B142" s="27"/>
+      <c r="C142" s="28"/>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="27"/>
-      <c r="B143" s="28"/>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="B143" s="27"/>
+      <c r="C143" s="28"/>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="27"/>
-      <c r="B144" s="28"/>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="B144" s="27"/>
+      <c r="C144" s="28"/>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="27"/>
-      <c r="B145" s="28"/>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="B145" s="27"/>
+      <c r="C145" s="28"/>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="27"/>
-      <c r="B146" s="28"/>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="B146" s="27"/>
+      <c r="C146" s="28"/>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="27"/>
-      <c r="B147" s="28"/>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="B147" s="27"/>
+      <c r="C147" s="28"/>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="27"/>
-      <c r="B148" s="28"/>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="B148" s="27"/>
+      <c r="C148" s="28"/>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="27"/>
-      <c r="B149" s="28"/>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="B149" s="27"/>
+      <c r="C149" s="28"/>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="27"/>
-      <c r="B150" s="28"/>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="B150" s="27"/>
+      <c r="C150" s="28"/>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="27"/>
-      <c r="B151" s="28"/>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="B151" s="27"/>
+      <c r="C151" s="28"/>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="27"/>
-      <c r="B152" s="28"/>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="B152" s="27"/>
+      <c r="C152" s="28"/>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="27"/>
-      <c r="B153" s="28"/>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="B153" s="27"/>
+      <c r="C153" s="28"/>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="27"/>
-      <c r="B154" s="28"/>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="B154" s="27"/>
+      <c r="C154" s="28"/>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="27"/>
-      <c r="B155" s="28"/>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="B155" s="27"/>
+      <c r="C155" s="28"/>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="27"/>
-      <c r="B156" s="28"/>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="B156" s="27"/>
+      <c r="C156" s="28"/>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="27"/>
-      <c r="B157" s="28"/>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="B157" s="27"/>
+      <c r="C157" s="28"/>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="27"/>
-      <c r="B158" s="28"/>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="B158" s="27"/>
+      <c r="C158" s="28"/>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="27"/>
-      <c r="B159" s="28"/>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="B159" s="27"/>
+      <c r="C159" s="28"/>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="27"/>
-      <c r="B160" s="28"/>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="B160" s="27"/>
+      <c r="C160" s="28"/>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="27"/>
-      <c r="B161" s="28"/>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="B161" s="27"/>
+      <c r="C161" s="28"/>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="27"/>
-      <c r="B162" s="28"/>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="B162" s="27"/>
+      <c r="C162" s="28"/>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="27"/>
-      <c r="B163" s="28"/>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="B163" s="27"/>
+      <c r="C163" s="28"/>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="27"/>
-      <c r="B164" s="28"/>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="B164" s="27"/>
+      <c r="C164" s="28"/>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="27"/>
-      <c r="B165" s="28"/>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="B165" s="27"/>
+      <c r="C165" s="28"/>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="27"/>
-      <c r="B166" s="28"/>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="B166" s="27"/>
+      <c r="C166" s="28"/>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="27"/>
-      <c r="B167" s="28"/>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="B167" s="27"/>
+      <c r="C167" s="28"/>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="27"/>
-      <c r="B168" s="28"/>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="B168" s="27"/>
+      <c r="C168" s="28"/>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="27"/>
-      <c r="B169" s="28"/>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="B169" s="27"/>
+      <c r="C169" s="28"/>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="27"/>
-      <c r="B170" s="28"/>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="B170" s="27"/>
+      <c r="C170" s="28"/>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="27"/>
-      <c r="B171" s="28"/>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="B171" s="27"/>
+      <c r="C171" s="28"/>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="27"/>
-      <c r="B172" s="28"/>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="B172" s="27"/>
+      <c r="C172" s="28"/>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="27"/>
-      <c r="B173" s="28"/>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="B173" s="27"/>
+      <c r="C173" s="28"/>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="27"/>
-      <c r="B174" s="28"/>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="B174" s="27"/>
+      <c r="C174" s="28"/>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="27"/>
-      <c r="B175" s="28"/>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="B175" s="27"/>
+      <c r="C175" s="28"/>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="27"/>
-      <c r="B176" s="28"/>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="B176" s="27"/>
+      <c r="C176" s="28"/>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="27"/>
-      <c r="B177" s="28"/>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="B177" s="27"/>
+      <c r="C177" s="28"/>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="27"/>
-      <c r="B178" s="28"/>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="B178" s="27"/>
+      <c r="C178" s="28"/>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="27"/>
-      <c r="B179" s="28"/>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="B179" s="27"/>
+      <c r="C179" s="28"/>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="27"/>
-      <c r="B180" s="28"/>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="B180" s="27"/>
+      <c r="C180" s="28"/>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="27"/>
-      <c r="B181" s="28"/>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="B181" s="27"/>
+      <c r="C181" s="28"/>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="27"/>
-      <c r="B182" s="28"/>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="B182" s="27"/>
+      <c r="C182" s="28"/>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="27"/>
-      <c r="B183" s="28"/>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="B183" s="27"/>
+      <c r="C183" s="28"/>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="27"/>
-      <c r="B184" s="28"/>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="B184" s="27"/>
+      <c r="C184" s="28"/>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="27"/>
-      <c r="B185" s="28"/>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="B185" s="27"/>
+      <c r="C185" s="28"/>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="27"/>
-      <c r="B186" s="28"/>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="B186" s="27"/>
+      <c r="C186" s="28"/>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="27"/>
-      <c r="B187" s="28"/>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="B187" s="27"/>
+      <c r="C187" s="28"/>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="27"/>
-      <c r="B188" s="28"/>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="B188" s="27"/>
+      <c r="C188" s="28"/>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="27"/>
-      <c r="B189" s="28"/>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="B189" s="27"/>
+      <c r="C189" s="28"/>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="27"/>
-      <c r="B190" s="28"/>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="B190" s="27"/>
+      <c r="C190" s="28"/>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="27"/>
-      <c r="B191" s="28"/>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="B191" s="27"/>
+      <c r="C191" s="28"/>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="27"/>
-      <c r="B192" s="28"/>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="B192" s="27"/>
+      <c r="C192" s="28"/>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="27"/>
-      <c r="B193" s="28"/>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="B193" s="27"/>
+      <c r="C193" s="28"/>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="27"/>
-      <c r="B194" s="28"/>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="B194" s="27"/>
+      <c r="C194" s="28"/>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="27"/>
-      <c r="B195" s="28"/>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="B195" s="27"/>
+      <c r="C195" s="28"/>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="27"/>
-      <c r="B196" s="28"/>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="B196" s="27"/>
+      <c r="C196" s="28"/>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="27"/>
-      <c r="B197" s="28"/>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="B197" s="27"/>
+      <c r="C197" s="28"/>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="27"/>
-      <c r="B198" s="28"/>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="B198" s="27"/>
+      <c r="C198" s="28"/>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="27"/>
-      <c r="B199" s="28"/>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="B199" s="27"/>
+      <c r="C199" s="28"/>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="27"/>
-      <c r="B200" s="28"/>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="B200" s="27"/>
+      <c r="C200" s="28"/>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="27"/>
-      <c r="B201" s="28"/>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="B201" s="27"/>
+      <c r="C201" s="28"/>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="27"/>
-      <c r="B202" s="28"/>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="B202" s="27"/>
+      <c r="C202" s="28"/>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="27"/>
-      <c r="B203" s="28"/>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="B203" s="27"/>
+      <c r="C203" s="28"/>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="27"/>
-      <c r="B204" s="28"/>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="B204" s="27"/>
+      <c r="C204" s="28"/>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="27"/>
-      <c r="B205" s="28"/>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="B205" s="27"/>
+      <c r="C205" s="28"/>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="27"/>
-      <c r="B206" s="28"/>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="B206" s="27"/>
+      <c r="C206" s="28"/>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="27"/>
-      <c r="B207" s="28"/>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="B207" s="27"/>
+      <c r="C207" s="28"/>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="27"/>
-      <c r="B208" s="28"/>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="B208" s="27"/>
+      <c r="C208" s="28"/>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="27"/>
-      <c r="B209" s="28"/>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="B209" s="27"/>
+      <c r="C209" s="28"/>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="27"/>
-      <c r="B210" s="28"/>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="B210" s="27"/>
+      <c r="C210" s="28"/>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="27"/>
-      <c r="B211" s="28"/>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="B211" s="27"/>
+      <c r="C211" s="28"/>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="27"/>
-      <c r="B212" s="28"/>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="B212" s="27"/>
+      <c r="C212" s="28"/>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="27"/>
-      <c r="B213" s="28"/>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="B213" s="27"/>
+      <c r="C213" s="28"/>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="27"/>
-      <c r="B214" s="28"/>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="B214" s="27"/>
+      <c r="C214" s="28"/>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="27"/>
-      <c r="B215" s="28"/>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="B215" s="27"/>
+      <c r="C215" s="28"/>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="27"/>
-      <c r="B216" s="28"/>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="B216" s="27"/>
+      <c r="C216" s="28"/>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="27"/>
-      <c r="B217" s="28"/>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="B217" s="27"/>
+      <c r="C217" s="28"/>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="27"/>
-      <c r="B218" s="28"/>
-    </row>
-    <row r="219" spans="1:2">
+      <c r="B218" s="27"/>
+      <c r="C218" s="28"/>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="27"/>
-      <c r="B219" s="28"/>
-    </row>
-    <row r="220" spans="1:2">
+      <c r="B219" s="27"/>
+      <c r="C219" s="28"/>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="27"/>
-      <c r="B220" s="28"/>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="B220" s="27"/>
+      <c r="C220" s="28"/>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="27"/>
-      <c r="B221" s="28"/>
-    </row>
-    <row r="222" spans="1:2">
+      <c r="B221" s="27"/>
+      <c r="C221" s="28"/>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="27"/>
-      <c r="B222" s="28"/>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="B222" s="27"/>
+      <c r="C222" s="28"/>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="27"/>
-      <c r="B223" s="28"/>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="B223" s="27"/>
+      <c r="C223" s="28"/>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="27"/>
-      <c r="B224" s="28"/>
-    </row>
-    <row r="225" spans="1:2">
+      <c r="B224" s="27"/>
+      <c r="C224" s="28"/>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="27"/>
-      <c r="B225" s="28"/>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="B225" s="27"/>
+      <c r="C225" s="28"/>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="27"/>
-      <c r="B226" s="28"/>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="B226" s="27"/>
+      <c r="C226" s="28"/>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="27"/>
-      <c r="B227" s="28"/>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="B227" s="27"/>
+      <c r="C227" s="28"/>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="27"/>
-      <c r="B228" s="28"/>
-    </row>
-    <row r="229" spans="1:2">
+      <c r="B228" s="27"/>
+      <c r="C228" s="28"/>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="27"/>
-      <c r="B229" s="28"/>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="B229" s="27"/>
+      <c r="C229" s="28"/>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="27"/>
-      <c r="B230" s="28"/>
-    </row>
-    <row r="231" spans="1:2">
+      <c r="B230" s="27"/>
+      <c r="C230" s="28"/>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="27"/>
-      <c r="B231" s="28"/>
-    </row>
-    <row r="232" spans="1:2">
+      <c r="B231" s="27"/>
+      <c r="C231" s="28"/>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="27"/>
-      <c r="B232" s="28"/>
-    </row>
-    <row r="233" spans="1:2">
+      <c r="B232" s="27"/>
+      <c r="C232" s="28"/>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="27"/>
-      <c r="B233" s="28"/>
-    </row>
-    <row r="234" spans="1:2">
+      <c r="B233" s="27"/>
+      <c r="C233" s="28"/>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="27"/>
-      <c r="B234" s="28"/>
+      <c r="B234" s="27"/>
+      <c r="C234" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="67" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="3" max="1048575" man="1"/>
+    <brk id="4" max="1048575" man="1"/>
   </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5821,90 +6196,90 @@
   <sheetData>
     <row r="1" spans="1:69">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="37"/>
     </row>
     <row r="2" spans="1:69">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:69">
@@ -5915,13 +6290,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:69">
@@ -5933,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:69">
@@ -5951,13 +6326,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:69">
@@ -5969,13 +6344,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:69">
@@ -5987,13 +6362,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:69">
@@ -6005,13 +6380,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:69">
@@ -6023,13 +6398,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:69">
@@ -6041,10 +6416,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:69">
@@ -6056,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:69">
@@ -6071,10 +6446,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:69">
@@ -6086,10 +6461,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:69">
@@ -6101,10 +6476,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:69">
@@ -6116,10 +6491,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:69">
@@ -6131,10 +6506,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6146,10 +6521,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6161,10 +6536,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6176,10 +6551,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6191,10 +6566,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6206,20 +6581,20 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
+      <c r="A29" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6257,87 +6632,87 @@
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:68">
@@ -6345,13 +6720,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -6360,13 +6735,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -6375,13 +6750,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -6390,13 +6765,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -6405,13 +6780,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -6420,13 +6795,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -6435,13 +6810,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -6450,13 +6825,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -6465,13 +6840,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -6480,13 +6855,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -6495,7 +6870,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8">
         <v>25</v>
@@ -6503,26 +6878,26 @@
     </row>
     <row r="15" spans="1:68">
       <c r="B15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6530,13 +6905,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6545,13 +6920,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6560,13 +6935,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6575,13 +6950,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6590,13 +6965,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6605,13 +6980,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6620,13 +6995,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6635,13 +7010,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6650,13 +7025,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6665,13 +7040,13 @@
         <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6680,13 +7055,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6695,13 +7070,13 @@
         <v>11</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6710,13 +7085,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6725,13 +7100,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6740,13 +7115,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6755,13 +7130,13 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6770,13 +7145,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6785,13 +7160,13 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6800,7 +7175,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="8">
         <v>25</v>
@@ -6808,26 +7183,26 @@
     </row>
     <row r="39" spans="1:4">
       <c r="B39" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6835,13 +7210,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>225</v>
-      </c>
       <c r="D44" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6850,13 +7225,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>226</v>
-      </c>
       <c r="D45" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6865,13 +7240,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C46" s="8">
         <v>25</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="4:4">
@@ -6895,7 +7270,7 @@
   <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:XFD1048576"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6911,87 +7286,87 @@
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:68">
@@ -6999,13 +7374,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -7014,13 +7389,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -7029,13 +7404,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -7044,13 +7419,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -7059,13 +7434,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -7074,13 +7449,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -7089,13 +7464,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -7104,7 +7479,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8">
         <v>25</v>
@@ -7112,14 +7487,14 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7156,87 +7531,87 @@
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:68">
@@ -7244,13 +7619,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -7259,13 +7634,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -7274,13 +7649,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -7289,13 +7664,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -7304,13 +7679,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -7319,13 +7694,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -7334,13 +7709,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -7349,7 +7724,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8">
         <v>25</v>
@@ -7357,14 +7732,14 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7401,87 +7776,87 @@
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="13"/>
@@ -7492,13 +7867,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -7507,13 +7882,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -7522,13 +7897,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -7536,13 +7911,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -7550,13 +7925,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -7564,7 +7939,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C8" s="13">
         <v>32</v>
@@ -7576,25 +7951,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="13">
         <v>26</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:68">
       <c r="B11" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7602,7 +7977,6 @@
     <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7628,87 +8002,87 @@
   <sheetData>
     <row r="1" spans="1:68" ht="15">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
     </row>
     <row r="2" spans="1:68" ht="15">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="13"/>
@@ -7783,13 +8157,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -7862,13 +8236,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -7941,13 +8315,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -8019,13 +8393,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -8097,13 +8471,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -8175,13 +8549,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="13">
         <v>25</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -8280,87 +8654,87 @@
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="13"/>
@@ -8371,13 +8745,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -8386,13 +8760,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -8401,13 +8775,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -8415,13 +8789,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -8429,13 +8803,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -8443,13 +8817,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -8457,13 +8831,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -8471,13 +8845,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -8485,18 +8859,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10">
         <v>25</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:68">
       <c r="B15" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
